--- a/list_stim_incongruent_practice.xlsx
+++ b/list_stim_incongruent_practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/asarraf_student_unimelb_edu_au/Documents/Documents/Task/Spatial Stroop Pokemon/web/Pokemon Task web/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/asarraf_student_unimelb_edu_au/Documents/Documents/Task/Spatial Stroop Pokemon/Pokemon Task web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{93487AF3-84F9-4644-885B-708ACE198EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9EF5D6D-326C-464D-BD8B-BB038F906E27}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{93487AF3-84F9-4644-885B-708ACE198EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA76AD5F-00C8-45AA-9BB3-5568FEC2CBC6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,49 +278,49 @@
     <t>[0.55,0]</t>
   </si>
   <si>
-    <t>stimuli/6.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/7.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/16.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/17.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/8.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/18.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/19.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/4.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/5.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/11.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/13.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/2.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/3.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/14.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/15.bmp</t>
+    <t>stimuli/6.png</t>
+  </si>
+  <si>
+    <t>stimuli/7.png</t>
+  </si>
+  <si>
+    <t>stimuli/16.png</t>
+  </si>
+  <si>
+    <t>stimuli/17.png</t>
+  </si>
+  <si>
+    <t>stimuli/8.png</t>
+  </si>
+  <si>
+    <t>stimuli/18.png</t>
+  </si>
+  <si>
+    <t>stimuli/19.png</t>
+  </si>
+  <si>
+    <t>stimuli/4.png</t>
+  </si>
+  <si>
+    <t>stimuli/5.png</t>
+  </si>
+  <si>
+    <t>stimuli/11.png</t>
+  </si>
+  <si>
+    <t>stimuli/13.png</t>
+  </si>
+  <si>
+    <t>stimuli/2.png</t>
+  </si>
+  <si>
+    <t>stimuli/3.png</t>
+  </si>
+  <si>
+    <t>stimuli/14.png</t>
+  </si>
+  <si>
+    <t>stimuli/15.png</t>
   </si>
 </sst>
 </file>
@@ -380,10 +380,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
